--- a/examples/sources/data/unsolved/to_schedule/2018-12-28.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-28.xlsx
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>43462</v>
